--- a/biology/Botanique/Combretum_cacoucia/Combretum_cacoucia.xlsx
+++ b/biology/Botanique/Combretum_cacoucia/Combretum_cacoucia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Combretum cacoucia est une espèce néotropicale d'arbre, appartenant à la famille des Combretaceae. Il s'agit de l'espèce type du genre Combretum Loefl..
-En Guyane, il est connu sous les noms de Queue de ara, Liane poison (Créole), Kaawu arib (Palikur), Rabo-de-arara, Yoyoca (Portugais)[2].
-Au Suriname, on l'appelle Vreemoesoe-wisie (Sranan tongo), Sekema (Karib), Jalimino (Arawak)[3], ou encore Fremusunoto, Yanman, Ravetere, Puspustere[4].
-On la nomme Jaroomany, Yanman, Bat-bane, Wild almond au Guyana[4], Sanajorro au Venezuela[5], et Rabo de arara au Brésil[6].
+En Guyane, il est connu sous les noms de Queue de ara, Liane poison (Créole), Kaawu arib (Palikur), Rabo-de-arara, Yoyoca (Portugais).
+Au Suriname, on l'appelle Vreemoesoe-wisie (Sranan tongo), Sekema (Karib), Jalimino (Arawak), ou encore Fremusunoto, Yanman, Ravetere, Puspustere.
+On la nomme Jaroomany, Yanman, Bat-bane, Wild almond au Guyana, Sanajorro au Venezuela, et Rabo de arara au Brésil.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Combretum cacoucia est une liane ligneuse montant jusqu'à 20 m avec une tige atteignant jusqu'à 10 cm de diamètre, ou parfois un arbuste haut jusqu'à 2,5-4 m.
 Il porte des trichomes glandulaires pédonculés, longs de 50 à 110 μm, à tige unisériée de 6-14 cellules, et à tête obovoïde de 25-35 x 20-25 μm.
@@ -534,7 +548,7 @@
 Les 5 pétales (rarement 4) sont dressés, de forme obovale à étroite ou elliptiques à large, mesurant 6-16,4 x 4-5,8 mm, plus ou moins exsertes à l'anthèse, l'apex aigu à subaigu, pubescent sur les deux faces.
 Les 10 étamines, sont bien exsertes, avec des filets longs de (5-15)19,5-29,5 mm.
 Le disque est bien développé, épais, avec les marges formant une crête en anneau qui ferme presque le réceptacle supérieur, étroitement appliqué à la base du style, densément pubescent au bord, long de 26,5-44,5 mm, avec une portion libre sur environ 1,5-2 mm de long, exserts jusqu'aux filets, glabres ou pubescents à la base, et contenant 3-4 ovules.
-Les fruits à 5 crêtes, longs de 5 à 8 cm pour 1,7-2,8 cm de large, sont de forme elliptique en vue latérale, à apex progressivement effilé à étroitement arrondi puis obtus, à base progressivement effilée en pseudostipe long d'environ 1-3 cm, densément pubescents (avec de nombreuses glandes pédonculées) devenant subglabres avec l'âge[4],[3],[5].
+Les fruits à 5 crêtes, longs de 5 à 8 cm pour 1,7-2,8 cm de large, sont de forme elliptique en vue latérale, à apex progressivement effilé à étroitement arrondi puis obtus, à base progressivement effilée en pseudostipe long d'environ 1-3 cm, densément pubescents (avec de nombreuses glandes pédonculées) devenant subglabres avec l'âge.
 </t>
         </is>
       </c>
@@ -563,10 +577,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces alliées les plus proches se trouvent en Afrique tropicale occidentale[3].
-Les relations phylogénétiques de Combretum cacoucia au sein de sa famille ont été étudiées[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces alliées les plus proches se trouvent en Afrique tropicale occidentale.
+Les relations phylogénétiques de Combretum cacoucia au sein de sa famille ont été étudiées.
 </t>
         </is>
       </c>
@@ -595,9 +611,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Combretum cacoucia est présent en Amérique centrale du Bélize et du Guatemala au Panama et jusqu'à la Colombie en passant par le Honduras, le Nicaragua, le Costa Rica, et sur la côte atlantique de l'est du Venezuela au sud du delta de l'Amazone au nord-est du Pará (Brésil), en passant par le Guyana, le Suriname, et la Guyane, avec une disjonction sur au moins 1 600 km à travers la Colombie et le Venezuela[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combretum cacoucia est présent en Amérique centrale du Bélize et du Guatemala au Panama et jusqu'à la Colombie en passant par le Honduras, le Nicaragua, le Costa Rica, et sur la côte atlantique de l'est du Venezuela au sud du delta de l'Amazone au nord-est du Pará (Brésil), en passant par le Guyana, le Suriname, et la Guyane, avec une disjonction sur au moins 1 600 km à travers la Colombie et le Venezuela,.
 </t>
         </is>
       </c>
@@ -626,9 +644,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Combretum cacoucia est une liane commune des végétations ripicoles en Guyane[2], et dans les forêts anciennes inondées, les forêts marécageuses riveraines ou lacustres, dans les végétations d'arrière-mangrove, les marécages de plaine, et les forêts secondaires, en bord de routes et dans la savane broussailleuse, autour de 0-150 m d'altitude au Venezuela[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combretum cacoucia est une liane commune des végétations ripicoles en Guyane, et dans les forêts anciennes inondées, les forêts marécageuses riveraines ou lacustres, dans les végétations d'arrière-mangrove, les marécages de plaine, et les forêts secondaires, en bord de routes et dans la savane broussailleuse, autour de 0-150 m d'altitude au Venezuela.
 </t>
         </is>
       </c>
@@ -657,13 +677,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Palikur brûlent les graines vénéneuses de Combretum cacoucia séchées pour enfumer les colonies et faire fuir les chauves-souris des habitations[2],[3].
-Au nord-ouest du Guyana, les Amérindiens pulvérisent la poudre de graines séchées sur les poulets, pour éloigner les Desmodus (chauve-souris hématophages)[9]
-L'ingestion des fruits de Combretum cacoucia provoque principalement d'abondants vomissements[2], probablement en raison de la teneur des Combretum en saponines triterpéniques[10],[11].
-Selon les croyances populaires de la région de Belém (Pará), les fleurs de Combretum Cacoucia ont la réputation d'être toxiques (sans preuve chimique pour étayer cette affirmation)[6]. On a signalé la présence de caféine et de tanins dans le genre Combretum[12].
-Combretum cacoucia contient des substances (tanins) aux propriétés antioxydantes et protectrices contre les UV-B[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Palikur brûlent les graines vénéneuses de Combretum cacoucia séchées pour enfumer les colonies et faire fuir les chauves-souris des habitations,.
+Au nord-ouest du Guyana, les Amérindiens pulvérisent la poudre de graines séchées sur les poulets, pour éloigner les Desmodus (chauve-souris hématophages)
+L'ingestion des fruits de Combretum cacoucia provoque principalement d'abondants vomissements, probablement en raison de la teneur des Combretum en saponines triterpéniques,.
+Selon les croyances populaires de la région de Belém (Pará), les fleurs de Combretum Cacoucia ont la réputation d'être toxiques (sans preuve chimique pour étayer cette affirmation). On a signalé la présence de caféine et de tanins dans le genre Combretum.
+Combretum cacoucia contient des substances (tanins) aux propriétés antioxydantes et protectrices contre les UV-B.
 </t>
         </is>
       </c>
@@ -692,9 +714,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[8] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « CACOUCIA coccinea. (Tabula 179.)
 Frutex ramos plures ſcandentes, longiſſimos, è caudice ſex aut ſeptem-pollicares emittens, ſuprà arbores, etiam altiſſimas, ſparſos ; Ramis &amp; ramulis dependentibus. Folia alterna, ovata, in acumen longum producta, rigida, ampla, integerrima, petiolo brevi ſuſulta. Flores in longiſſimam ſpicam terminalem diſpoſiti ; floribus ſolitariis ; ad axillam squamulæ oblongæ, acutæ.
 Florebat, fructumque ferebat Novernbri.
